--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,206 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>123000</v>
       </c>
       <c r="E8" s="3">
+        <v>512700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>130100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>123700</v>
+      </c>
+      <c r="H8" s="3">
         <v>115700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>112200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>109500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>112200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>112000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>115300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>111200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>111700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>11600</v>
       </c>
       <c r="E9" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H9" s="3">
         <v>8900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>10700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>10100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>8600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>7800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>111400</v>
       </c>
       <c r="E10" s="3">
+        <v>476800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>121400</v>
+      </c>
+      <c r="G10" s="3">
+        <v>112700</v>
+      </c>
+      <c r="H10" s="3">
         <v>106800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>101500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>99400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>103600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>104100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>105300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>103100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>103900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +878,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +916,17 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,29 +960,38 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -944,8 +1004,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1048,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1069,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>123400</v>
       </c>
       <c r="E17" s="3">
+        <v>483200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>125200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>120800</v>
+      </c>
+      <c r="H17" s="3">
         <v>108000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>107200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>107800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>107300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>102700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>107400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>104000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>104600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H18" s="3">
         <v>7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,13 +1175,16 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1111,43 +1213,61 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>13400</v>
       </c>
       <c r="E21" s="3">
+        <v>73800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>16900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>13100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>14900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>18700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>19400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>16800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>16500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,78 +1301,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>7700</v>
+        <v>29500</v>
       </c>
       <c r="F23" s="3">
         <v>4900</v>
       </c>
       <c r="G23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>9300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>-600</v>
       </c>
       <c r="E24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>-29300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1433,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H26" s="3">
         <v>6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>34100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H27" s="3">
         <v>6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>34100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1565,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1609,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1653,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,13 +1697,22 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1531,43 +1741,61 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H33" s="3">
         <v>6300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>34100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1829,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H35" s="3">
         <v>6300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>34100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1946,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1964,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>31700</v>
+      </c>
+      <c r="H41" s="3">
         <v>13500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>13700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>11000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>9100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>9600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +2046,17 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +2090,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +2134,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1881,8 +2178,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1916,43 +2222,61 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>3670000</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3510200</v>
+      </c>
+      <c r="H47" s="3">
         <v>3200300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>3209000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>3246100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>3318200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>3321300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>3320200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>3298300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>3294600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1968,26 +2292,35 @@
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>10500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>16200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>16200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>16300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>15900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2354,17 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2398,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2442,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2486,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2530,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="3">
+        <v>5091500</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4971500</v>
+      </c>
+      <c r="H54" s="3">
         <v>4464400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>4447400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>4470500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>4530700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>4511100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>4491900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>4474300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>4449400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2598,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2616,11 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2261,8 +2654,17 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,43 +2698,61 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="3">
+        <v>2757700</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2810600</v>
+      </c>
+      <c r="H59" s="3">
         <v>2641900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>2637700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>2636400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>2644000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>2626700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>2617800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2619700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2603800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2366,8 +2786,17 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2830,17 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2874,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2918,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2962,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +3006,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="3">
+        <v>4311900</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4279800</v>
+      </c>
+      <c r="H66" s="3">
         <v>3775900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>3757700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>3767300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>3793500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>3806700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>3791000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>3782700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>3763800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +3074,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +3112,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +3156,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3200,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +3244,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3">
+        <v>925900</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>914400</v>
+      </c>
+      <c r="H72" s="3">
         <v>913200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>909500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>908000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>908000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>877600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>873600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>870600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>868100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3332,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3376,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3420,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="3">
+        <v>779600</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3">
+        <v>691700</v>
+      </c>
+      <c r="H76" s="3">
         <v>688500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>689700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>703200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>737200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>704400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>700800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>691500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>685600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3508,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H81" s="3">
         <v>6300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>34100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3625,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>13900</v>
       </c>
       <c r="E83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H83" s="3">
         <v>10500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>11900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>11400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>10100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>9600</v>
       </c>
       <c r="L83" s="3">
         <v>9300</v>
       </c>
       <c r="M83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="N83" s="3">
         <v>9600</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3707,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3751,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3795,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3839,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3883,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>1400</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>67200</v>
+      </c>
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>4900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-8500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>9900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3951,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-18300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-800</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +4033,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +4077,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-10300</v>
       </c>
       <c r="E94" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="H94" s="3">
         <v>6300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-12400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>12400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-14300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-5500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-12600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,16 +4145,19 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2600</v>
+        <v>-10500</v>
       </c>
       <c r="F96" s="3">
         <v>-2600</v>
@@ -3481,8 +4183,17 @@
       <c r="M96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +4227,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4271,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +4315,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +4403,57 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-8800</v>
       </c>
       <c r="E102" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>4200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
-        <v>43281</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E8" s="3">
         <v>123000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>512700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>129900</v>
+      </c>
+      <c r="H8" s="3">
         <v>130100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>123700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>115700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
+        <v>109500</v>
+      </c>
+      <c r="L8" s="3">
         <v>112200</v>
       </c>
-      <c r="J8" s="3">
-        <v>109500</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
+        <v>112000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>115300</v>
+      </c>
+      <c r="O8" s="3">
+        <v>111200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>111700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>112200</v>
       </c>
-      <c r="L8" s="3">
-        <v>112000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>115300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>111200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>111700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>112200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E9" s="3">
         <v>11600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>8900</v>
       </c>
-      <c r="I9" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E10" s="3">
         <v>111400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>476800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>120600</v>
+      </c>
+      <c r="H10" s="3">
         <v>121400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>112700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>106800</v>
       </c>
-      <c r="I10" s="3">
-        <v>101500</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>99400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>103600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>104100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>105300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>103100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>103900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,17 +1003,17 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>200</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>-100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E17" s="3">
         <v>123400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>483200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>123500</v>
+      </c>
+      <c r="H17" s="3">
         <v>125200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>120800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>108000</v>
       </c>
-      <c r="I17" s="3">
-        <v>107200</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>107800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>102700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H18" s="3">
         <v>4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>7700</v>
       </c>
-      <c r="I18" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,52 +1256,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E21" s="3">
         <v>13400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>73800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H21" s="3">
         <v>15700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>15400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>18200</v>
       </c>
-      <c r="I21" s="3">
-        <v>16900</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
-        <v>800</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-29300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6300</v>
       </c>
-      <c r="I26" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6300</v>
       </c>
-      <c r="I27" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6300</v>
       </c>
-      <c r="I33" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6300</v>
       </c>
-      <c r="I35" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
-        <v>43281</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
         <v>31700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="M41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="O41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3">
-        <v>13700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>9500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>11000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>9200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>9100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>9600</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,96 +2333,105 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3875100</v>
+      </c>
+      <c r="E47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
         <v>3510200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3200300</v>
       </c>
-      <c r="I47" s="3">
-        <v>3209000</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3246100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3318200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3321300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3320200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3298300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3294600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>16200</v>
       </c>
       <c r="M48" s="3">
         <v>16200</v>
       </c>
       <c r="N48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="O48" s="3">
         <v>16300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5311600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
         <v>4971500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4464400</v>
       </c>
-      <c r="I54" s="3">
-        <v>4447400</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4470500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4530700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4511100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4491900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4474300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4449400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2841,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2796100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
         <v>2810600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2641900</v>
       </c>
-      <c r="I59" s="3">
-        <v>2637700</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2636400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2644000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2626700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2617800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2619700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2603800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4420200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
         <v>4279800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3775900</v>
       </c>
-      <c r="I66" s="3">
-        <v>3757700</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3767300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3793500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3806700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3791000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3782700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3763800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>940300</v>
+      </c>
+      <c r="E72" s="3">
         <v>925900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
         <v>914400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>913200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>909500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>908000</v>
       </c>
       <c r="K72" s="3">
         <v>908000</v>
       </c>
       <c r="L72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="M72" s="3">
         <v>877600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>873600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>870600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>868100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>891500</v>
+      </c>
+      <c r="E76" s="3">
         <v>779600</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
         <v>691700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>688500</v>
       </c>
-      <c r="I76" s="3">
-        <v>689700</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>703200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>737200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>704400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>700800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>691500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>685600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
-        <v>43281</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6300</v>
       </c>
-      <c r="I81" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E83" s="3">
         <v>13900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H83" s="3">
         <v>10700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10500</v>
       </c>
-      <c r="I83" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>67200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="L89" s="3">
+        <v>9900</v>
+      </c>
+      <c r="M89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N89" s="3">
         <v>4900</v>
       </c>
-      <c r="J89" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>9900</v>
-      </c>
-      <c r="L89" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M89" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4184,46 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-18300</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-300</v>
       </c>
       <c r="P91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-24900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-50400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>6300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,10 +4391,10 @@
         <v>-2600</v>
       </c>
       <c r="E96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-10500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2600</v>
       </c>
       <c r="G96" s="3">
         <v>-2600</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>6100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H100" s="3">
         <v>6900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H102" s="3">
         <v>-18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>18200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E8" s="3">
         <v>146800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>123000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>512700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>129900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>130100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>123700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>115700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>109500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>112200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>112000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>115300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>111200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>111700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E9" s="3">
         <v>12200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E10" s="3">
         <v>134600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>111400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>476800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>120600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>121400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>112700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>106800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>103600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>104100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>105300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>103100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>103900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,15 +1029,15 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E17" s="3">
         <v>125500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>483200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>125200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>120800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>108000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>102700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>21300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,55 +1293,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E21" s="3">
         <v>35700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>73800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>21300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-29300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>17000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>17000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>17000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>17000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,19 +2140,20 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
@@ -2074,35 +2161,38 @@
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
         <v>31700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,19 +2438,22 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="E47" s="3">
         <v>3875100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2356,35 +2461,38 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>3510200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3200300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3246100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3318200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3321300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3320200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3298300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3294600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2409,29 +2517,32 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>16200</v>
       </c>
       <c r="N48" s="3">
         <v>16200</v>
       </c>
       <c r="O48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="P48" s="3">
         <v>16300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,19 +2788,22 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5376600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5311600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
@@ -2685,35 +2811,38 @@
       <c r="H54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3">
         <v>4971500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4464400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4470500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4530700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4511100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4491900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4474300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4449400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,19 +2978,22 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2826100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2796100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
@@ -2864,35 +3001,38 @@
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
         <v>2810600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2641900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2636400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2644000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2626700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2617800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2619700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2603800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,19 +3328,22 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4476300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4420200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
@@ -3193,35 +3351,38 @@
       <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3">
         <v>4279800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3775900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3767300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3793500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3806700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3791000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3782700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3763800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,19 +3598,22 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>936500</v>
+      </c>
+      <c r="E72" s="3">
         <v>940300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>925900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -3447,35 +3621,38 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
         <v>914400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>913200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>908000</v>
       </c>
       <c r="L72" s="3">
         <v>908000</v>
       </c>
       <c r="M72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="N72" s="3">
         <v>877600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>873600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>870600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>868100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,19 +3798,22 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900300</v>
+      </c>
+      <c r="E76" s="3">
         <v>891500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>779600</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
@@ -3635,35 +3821,38 @@
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3">
         <v>691700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>688500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>703200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>737200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>704400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>700800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>691500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>685600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>17000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E83" s="3">
         <v>14400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>67200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4187,43 +4408,46 @@
         <v>-500</v>
       </c>
       <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-300</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4394,10 +4628,10 @@
         <v>-2600</v>
       </c>
       <c r="F96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-10500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-2600</v>
       </c>
       <c r="H96" s="3">
         <v>-2600</v>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E8" s="3">
         <v>128000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>146800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>123000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>512700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>129900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>130100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>123700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>115700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>109500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>112200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>112000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>115300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>111200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>111700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
         <v>9700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>35900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E10" s="3">
         <v>118300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>134600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>111400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>476800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>120600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>121400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>112700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>106800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>103600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>104100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>105300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>103100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>103900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,15 +1051,15 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E17" s="3">
         <v>129000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>125500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>483200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>123500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>125200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>120800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>108000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>102700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>107400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E21" s="3">
         <v>10800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>35700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>73800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-29300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,22 +2226,23 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
@@ -2164,35 +2250,38 @@
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>31700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,22 +2542,25 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3941600</v>
+      </c>
+      <c r="E47" s="3">
         <v>3904800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3875100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2464,35 +2568,38 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>3510200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3200300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3246100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3318200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3321300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3320200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3298300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3294600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2520,29 +2627,32 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>16200</v>
       </c>
       <c r="O48" s="3">
         <v>16200</v>
       </c>
       <c r="P48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>16300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,22 +2913,25 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5463000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5376600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5311600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
@@ -2814,35 +2939,38 @@
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>4971500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4464400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4470500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4530700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4511100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4491900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4474300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4449400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,22 +3114,25 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2869800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2826100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2796100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -3004,35 +3140,38 @@
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>2810600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2641900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2636400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2644000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2626700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2617800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2619700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2603800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,22 +3485,25 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4554300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4476300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4420200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
@@ -3354,35 +3511,38 @@
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>4279800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3775900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3767300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3793500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3806700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3791000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3782700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3763800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,22 +3771,25 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>933100</v>
+      </c>
+      <c r="E72" s="3">
         <v>936500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>940300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>925900</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
@@ -3624,35 +3797,38 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>914400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>913200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>908000</v>
       </c>
       <c r="M72" s="3">
         <v>908000</v>
       </c>
       <c r="N72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="O72" s="3">
         <v>877600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>873600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>870600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>868100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,22 +3983,25 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>908700</v>
+      </c>
+      <c r="E76" s="3">
         <v>900300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>891500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>779600</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
@@ -3824,35 +4009,38 @@
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>691700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>688500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>703200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>737200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>704400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>700800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>691500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>685600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E83" s="3">
         <v>11800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,13 +4615,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
@@ -4411,43 +4631,46 @@
         <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-300</v>
       </c>
       <c r="R91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4631,10 +4864,10 @@
         <v>-2600</v>
       </c>
       <c r="G96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-10500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2600</v>
       </c>
       <c r="I96" s="3">
         <v>-2600</v>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E100" s="3">
         <v>11200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E8" s="3">
         <v>126100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>128000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>146800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>123000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>512700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>129900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>130100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>123700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>115700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>109500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>112200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>112000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>115300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>111200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>111700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E9" s="3">
         <v>8500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>35900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E10" s="3">
         <v>117600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>134600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>111400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>476800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>120600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>121400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>112700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>106800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>103600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>104100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>105300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>103100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>103900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,15 +1074,15 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E17" s="3">
         <v>130100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>125500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>483200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>125200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>120800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>108000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>102700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>107400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E21" s="3">
         <v>6700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>35700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>73800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-29300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,25 +2313,26 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
@@ -2253,35 +2340,38 @@
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>31700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,25 +2647,28 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3793000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3941600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3904800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3875100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2571,35 +2676,38 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>3510200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3200300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3246100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3318200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3321300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3320200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3298300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3294600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2630,52 +2738,55 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>16200</v>
       </c>
       <c r="P48" s="3">
         <v>16200</v>
       </c>
       <c r="Q48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="R48" s="3">
         <v>16300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>61500</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>61600</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>61800</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>62000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,25 +3039,28 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5337000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5463000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5376600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5311600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
@@ -2942,35 +3068,38 @@
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>4971500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4464400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4470500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4530700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4511100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4491900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4474300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4449400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,25 +3251,28 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2879900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2869800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2826100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2796100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -3143,35 +3280,38 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>2810600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2641900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2636400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2644000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2626700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2617800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2619700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2603800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,25 +3643,28 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4512800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4554300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4476300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4420200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
@@ -3514,35 +3672,38 @@
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>4279800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3775900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3767300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3793500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3806700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3791000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3782700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3763800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,25 +3945,28 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>929800</v>
+      </c>
+      <c r="E72" s="3">
         <v>933100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>936500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>940300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>925900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -3800,35 +3974,38 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>914400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>913200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>908000</v>
       </c>
       <c r="N72" s="3">
         <v>908000</v>
       </c>
       <c r="O72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="P72" s="3">
         <v>877600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>873600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>870600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>868100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,25 +4169,28 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>824300</v>
+      </c>
+      <c r="E76" s="3">
         <v>908700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>900300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>891500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>779600</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
@@ -4012,35 +4198,38 @@
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>691700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>688500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>703200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>737200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>704400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>700800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>691500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>685600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E83" s="3">
         <v>10600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E89" s="3">
         <v>3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,16 +4836,17 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
@@ -4634,43 +4855,46 @@
         <v>-500</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-300</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4867,10 +5101,10 @@
         <v>-2600</v>
       </c>
       <c r="H96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-10500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2600</v>
       </c>
       <c r="J96" s="3">
         <v>-2600</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E8" s="3">
         <v>122300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>126100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>128000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>146800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>123000</v>
       </c>
-      <c r="I8" s="3">
-        <v>512700</v>
-      </c>
       <c r="J8" s="3">
+        <v>126300</v>
+      </c>
+      <c r="K8" s="3">
         <v>129900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>130100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>115700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>109500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>112200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>112000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>115300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>111200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>111700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,111 +818,117 @@
         <v>8100</v>
       </c>
       <c r="E9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F9" s="3">
         <v>8500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11600</v>
       </c>
-      <c r="I9" s="3">
-        <v>35900</v>
-      </c>
       <c r="J9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K9" s="3">
         <v>9300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E10" s="3">
         <v>114200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>117600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>118300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>134600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>111400</v>
       </c>
-      <c r="I10" s="3">
-        <v>476800</v>
-      </c>
       <c r="J10" s="3">
+        <v>117100</v>
+      </c>
+      <c r="K10" s="3">
         <v>120600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>121400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>112700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>106800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>99400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>103600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>104100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>105300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>103100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>103900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,15 +1097,15 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E17" s="3">
         <v>123000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>130100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>129000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>125500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>123400</v>
       </c>
-      <c r="I17" s="3">
-        <v>483200</v>
-      </c>
       <c r="J17" s="3">
+        <v>113700</v>
+      </c>
+      <c r="K17" s="3">
         <v>123500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>120800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>108000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>107300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>102700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>107400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>104600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>29500</v>
-      </c>
       <c r="J18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K18" s="3">
         <v>6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,64 +1403,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E21" s="3">
         <v>9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13400</v>
       </c>
-      <c r="I21" s="3">
-        <v>73800</v>
-      </c>
       <c r="J21" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K21" s="3">
         <v>17800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>29500</v>
-      </c>
       <c r="J23" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K23" s="3">
         <v>6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
-        <v>5000</v>
-      </c>
       <c r="J24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-29300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>24400</v>
-      </c>
       <c r="J26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K26" s="3">
         <v>5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>24400</v>
-      </c>
       <c r="J27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K27" s="3">
         <v>5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>24400</v>
-      </c>
       <c r="J33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>24400</v>
-      </c>
       <c r="J35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,28 +2400,29 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5400</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -2343,35 +2430,38 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>31700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,28 +2752,31 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3851500</v>
+      </c>
+      <c r="E47" s="3">
         <v>3793000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3941600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3904800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3875100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2679,35 +2784,38 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>3510200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3200300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3246100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3318200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3321300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3320200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3298300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3294600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2741,55 +2849,58 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>16200</v>
       </c>
       <c r="Q48" s="3">
         <v>16200</v>
       </c>
       <c r="R48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="S48" s="3">
         <v>16300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>61500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>61600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>61800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>62000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,28 +3165,31 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5412600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5337000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5463000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5376600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5311600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -3071,35 +3197,38 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>4971500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4464400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4470500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4530700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4511100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4491900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4474300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4449400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,28 +3388,31 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2898000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2879900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2869800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2826100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2796100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -3283,35 +3420,38 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>2810600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2641900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2636400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2644000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2626700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2617800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2619700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2603800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,28 +3801,31 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4555600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4512800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4554300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4476300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4420200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -3675,35 +3833,38 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>4279800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3775900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3767300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3793500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3806700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3791000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3782700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3763800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,28 +4119,31 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>931500</v>
+      </c>
+      <c r="E72" s="3">
         <v>929800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>933100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>936500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>940300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>925900</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -3977,35 +4151,38 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>914400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>913200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>908000</v>
       </c>
       <c r="O72" s="3">
         <v>908000</v>
       </c>
       <c r="P72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="Q72" s="3">
         <v>877600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>873600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>870600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>868100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,28 +4355,31 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>857000</v>
+      </c>
+      <c r="E76" s="3">
         <v>824300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>908700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>900300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>891500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>779600</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -4201,35 +4387,38 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>691700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>688500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>703200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>737200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>704400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>691500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>685600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>24400</v>
-      </c>
       <c r="J81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E83" s="3">
         <v>10100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13900</v>
       </c>
-      <c r="I83" s="3">
-        <v>44300</v>
-      </c>
       <c r="J83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,19 +5057,20 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
@@ -4858,43 +5079,46 @@
         <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-500</v>
       </c>
       <c r="L91" s="3">
         <v>-500</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-300</v>
       </c>
       <c r="T91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>9800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-23700</v>
-      </c>
       <c r="J94" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K94" s="3">
         <v>6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5104,7 +5338,7 @@
         <v>-2600</v>
       </c>
       <c r="I96" s="3">
-        <v>-10500</v>
+        <v>-2600</v>
       </c>
       <c r="J96" s="3">
         <v>-2600</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-17500</v>
-      </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E8" s="3">
         <v>124800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>126100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>128000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>146800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>123000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>126300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>129900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>130100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>115700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>109500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>112200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>112000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>115300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>111200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>111700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8100</v>
+        <v>9100</v>
       </c>
       <c r="E9" s="3">
         <v>8100</v>
       </c>
       <c r="F9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G9" s="3">
         <v>8500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E10" s="3">
         <v>116700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>114200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>117600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>118300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>134600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>111400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>117100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>120600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>121400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>112700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>106800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>99400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>103600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>104100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>105300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>103100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>103900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,15 +1120,15 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E17" s="3">
         <v>119500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>130100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>129000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>125500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>113700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>123500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>125200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>108000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>107800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>107300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>102700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>107400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>104000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>104600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,67 +1440,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>15400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,31 +2487,32 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -2433,35 +2520,38 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>31700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,31 +2857,34 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3840900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3851500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3793000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3941600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3904800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3875100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2787,35 +2892,38 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>3510200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3200300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3246100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3318200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3321300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3320200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3298300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3294600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2852,29 +2960,32 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>16200</v>
       </c>
       <c r="R48" s="3">
         <v>16200</v>
       </c>
       <c r="S48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="T48" s="3">
         <v>16300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,26 +2995,26 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
         <v>61500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>61600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>61800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>62000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,31 +3291,34 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5390900</v>
+      </c>
+      <c r="E54" s="3">
         <v>5412600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5337000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5463000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5376600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5311600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -3200,35 +3326,38 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>4971500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4464400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4470500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4530700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4511100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4491900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4474300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4449400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,31 +3525,34 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2899800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2898000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2879900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2869800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2826100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2796100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -3423,35 +3560,38 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>2810600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2641900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2636400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2644000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2626700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2617800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2619700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2603800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,31 +3959,34 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4555100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4555600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4512800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4554300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4476300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4420200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -3836,35 +3994,38 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>4279800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3775900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3767300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3793500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3806700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3791000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3782700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3763800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,31 +4293,34 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>922900</v>
+      </c>
+      <c r="E72" s="3">
         <v>931500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>929800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>933100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>936500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>940300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>925900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -4154,35 +4328,38 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>914400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>913200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>908000</v>
       </c>
       <c r="P72" s="3">
         <v>908000</v>
       </c>
       <c r="Q72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="R72" s="3">
         <v>877600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>873600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>870600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>868100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,31 +4541,34 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>835800</v>
+      </c>
+      <c r="E76" s="3">
         <v>857000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>824300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>908700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>891500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>779600</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -4390,35 +4576,38 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>691700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>688500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>703200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>737200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>704400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>691500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>685600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E83" s="3">
         <v>10200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>67200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,22 +5278,23 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-500</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
@@ -5081,44 +5302,47 @@
       <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-500</v>
       </c>
       <c r="M91" s="3">
         <v>-500</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-300</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E100" s="3">
         <v>4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E8" s="3">
         <v>121300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>124800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>126100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>128000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>146800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>123000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>126300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>129900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>115700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>109500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>112200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>112000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>115300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>111200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>111700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="3">
         <v>9100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8100</v>
       </c>
       <c r="F9" s="3">
         <v>8100</v>
       </c>
       <c r="G9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H9" s="3">
         <v>8500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E10" s="3">
         <v>112200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>116700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>114200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>117600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>118300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>134600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>111400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>117100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>120600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>121400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>112700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>106800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>99400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>103600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>104100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>105300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>103100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>103900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1123,15 +1142,15 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E17" s="3">
         <v>128300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>119500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>130100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>129000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>125500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>123400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>113700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>123500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>125200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>120800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>108000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>107800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>107300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>102700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>107400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>104000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E21" s="3">
         <v>4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>35700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-29300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,34 +2573,35 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5400</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
@@ -2523,35 +2609,38 @@
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>31700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,34 +2961,37 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3857300</v>
+      </c>
+      <c r="E47" s="3">
         <v>3840900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3851500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3793000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3941600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3904800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3875100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2895,35 +2999,38 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>3510200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3200300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3246100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3318200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3321300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3320200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3298300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3294600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2963,34 +3070,37 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>16200</v>
       </c>
       <c r="S48" s="3">
         <v>16200</v>
       </c>
       <c r="T48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="U48" s="3">
         <v>16300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>60700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -2998,26 +3108,26 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
         <v>61500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>61600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>61800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>62000</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,34 +3416,37 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5433400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5390900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5412600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5337000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5463000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5376600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5311600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
@@ -3329,35 +3454,38 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>4971500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4464400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4470500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4530700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4511100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4491900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4474300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4449400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,34 +3661,37 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2938100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2899800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2898000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2879900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2869800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2826100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2796100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -3563,35 +3699,38 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>2810600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2641900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2636400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2644000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2626700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2617800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2619700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2603800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,34 +4116,37 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4603000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4555100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4555600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4512800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4554300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4476300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4420200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
@@ -3997,35 +4154,38 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>4279800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3775900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3767300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3793500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3806700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3791000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3782700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3763800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,34 +4466,37 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>933300</v>
+      </c>
+      <c r="E72" s="3">
         <v>922900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>931500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>929800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>933100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>936500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>940300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>925900</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
@@ -4331,35 +4504,38 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>914400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>913200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>908000</v>
       </c>
       <c r="Q72" s="3">
         <v>908000</v>
       </c>
       <c r="R72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="S72" s="3">
         <v>877600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>873600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>870600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>868100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,34 +4726,37 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>830400</v>
+      </c>
+      <c r="E76" s="3">
         <v>835800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>857000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>824300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>908700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>891500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>779600</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
@@ -4579,35 +4764,38 @@
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>691700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>688500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>703200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>737200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>704400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>700800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>691500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>685600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E83" s="3">
         <v>11000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E89" s="3">
         <v>3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>67200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,25 +5498,26 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
@@ -5305,44 +5525,47 @@
       <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-500</v>
       </c>
       <c r="N91" s="3">
         <v>-500</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-300</v>
       </c>
       <c r="V91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>12400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E100" s="3">
         <v>12900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E8" s="3">
         <v>142900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>121300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>124800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>126100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>128000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>146800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>123000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>126300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>129900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>130100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>115700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>109500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>112200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>112000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>115300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>111200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>111700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8100</v>
       </c>
       <c r="G9" s="3">
         <v>8100</v>
       </c>
       <c r="H9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I9" s="3">
         <v>8500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E10" s="3">
         <v>135000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>112200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>116700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>114200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>117600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>118300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>134600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>111400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>117100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>120600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>121400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>112700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>106800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>99400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>103600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>104100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>105300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>103100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>103900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1145,15 +1165,15 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E17" s="3">
         <v>127600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>119500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>130100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>129000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>125500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>123400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>113700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>123500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>125200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>120800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>108000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>107800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>107300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>102700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>107400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>104600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3">
         <v>15300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>25200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>35700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>19400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>15300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-29300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>13100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>13100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>13100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,37 +2660,38 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5400</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
@@ -2612,35 +2699,38 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>31700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,37 +3066,40 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3664300</v>
+      </c>
+      <c r="E47" s="3">
         <v>3857300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3840900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3851500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3793000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3941600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3904800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3875100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3002,35 +3107,38 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3">
         <v>3510200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3200300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3246100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3318200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3321300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3320200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3298300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3294600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3073,37 +3181,40 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>16200</v>
       </c>
       <c r="T48" s="3">
         <v>16200</v>
       </c>
       <c r="U48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="V48" s="3">
         <v>16300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
         <v>60700</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -3111,26 +3222,26 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
         <v>61500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>61600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>61800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62000</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,37 +3542,40 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5217600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5433400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5390900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5412600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5337000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5463000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5376600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5311600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
@@ -3457,35 +3583,38 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>4971500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4464400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4470500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4530700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4511100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4491900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4474300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4449400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,37 +3798,40 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2922900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2938100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2899800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2898000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2879900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2869800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2826100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2796100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -3702,35 +3839,38 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>2810600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2641900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2636400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2644000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2626700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2617800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2619700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2603800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,37 +4274,40 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4528500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4603000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4555100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4555600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4512800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4554300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4476300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4420200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
@@ -4157,35 +4315,38 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>4279800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3775900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3767300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3793500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3806700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3791000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3782700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3763800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,37 +4640,40 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E72" s="3">
         <v>933300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>922900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>931500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>929800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>933100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>936500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>940300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>925900</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
@@ -4507,35 +4681,38 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>914400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>913200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>908000</v>
       </c>
       <c r="R72" s="3">
         <v>908000</v>
       </c>
       <c r="S72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="T72" s="3">
         <v>877600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>873600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>870600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>868100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,37 +4912,40 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>689100</v>
+      </c>
+      <c r="E76" s="3">
         <v>830400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>835800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>857000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>824300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>908700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>900300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>891500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>779600</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
@@ -4767,35 +4953,38 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>691700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>688500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>703200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>737200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>704400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>700800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>691500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>685600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>13100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E83" s="3">
         <v>9900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>67200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,28 +5719,29 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -5528,44 +5749,47 @@
       <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-500</v>
       </c>
       <c r="O91" s="3">
         <v>-500</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-300</v>
       </c>
       <c r="W91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>12400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E100" s="3">
         <v>24600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -1861,8 +1861,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-7700</v>
       </c>
       <c r="E26" s="3">
         <v>13100</v>
@@ -1929,8 +1929,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-7700</v>
       </c>
       <c r="E27" s="3">
         <v>13100</v>
@@ -2337,8 +2337,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-7700</v>
       </c>
       <c r="E33" s="3">
         <v>13100</v>
@@ -2473,8 +2473,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-7700</v>
       </c>
       <c r="E35" s="3">
         <v>13100</v>
@@ -5129,8 +5129,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-7700</v>
       </c>
       <c r="E81" s="3">
         <v>13100</v>
@@ -5632,7 +5632,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21400</v>
+        <v>-15800</v>
       </c>
       <c r="E89" s="3">
         <v>-24900</v>
@@ -5930,7 +5930,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>15800</v>
+        <v>-21400</v>
       </c>
       <c r="E94" s="3">
         <v>1200</v>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>119200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>142900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>121300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>124800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>128000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>146800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>126300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>129900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>123700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>115700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>109500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>112200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>112000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>115300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>111200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>111700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
         <v>9600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8100</v>
       </c>
       <c r="H9" s="3">
         <v>8100</v>
       </c>
       <c r="I9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J9" s="3">
         <v>8500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>109600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>135000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>112200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>116700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>114200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>117600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>118300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>134600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>111400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>117100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>120600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>121400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>112700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>106800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>99400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>103600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>104100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>105300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>103100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>103900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,8 +1173,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1168,15 +1188,15 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>128700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>128300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>119500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>123000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>130100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>129000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>123400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>113700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>123500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>125200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>120800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>108000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>107800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>107300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>102700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>107400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>104000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>104600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1481,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1516,76 +1550,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F21" s="3">
         <v>25200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L21" s="3">
+        <v>35700</v>
+      </c>
+      <c r="M21" s="3">
+        <v>13400</v>
+      </c>
+      <c r="N21" s="3">
+        <v>24400</v>
+      </c>
+      <c r="O21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="P21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>15400</v>
       </c>
-      <c r="H21" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>10800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>35700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>13400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>24400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>17800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>15700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>15400</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>16500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-29300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2331,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2688,49 +2775,52 @@
         <v>8000</v>
       </c>
       <c r="K41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>31700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3096,49 +3201,52 @@
         <v>3904800</v>
       </c>
       <c r="K47" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="L47" s="3">
         <v>3875100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3670000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3510200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3200300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3246100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3318200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3321300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3320200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3298300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3294600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3184,29 +3292,32 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>10500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>16200</v>
       </c>
       <c r="U48" s="3">
         <v>16200</v>
       </c>
       <c r="V48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="W48" s="3">
         <v>16300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3232,19 +3343,19 @@
         <v>61600</v>
       </c>
       <c r="K49" s="3">
+        <v>61600</v>
+      </c>
+      <c r="L49" s="3">
         <v>61800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3668,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3572,49 +3698,52 @@
         <v>5376600</v>
       </c>
       <c r="K54" s="3">
+        <v>5376600</v>
+      </c>
+      <c r="L54" s="3">
         <v>5311600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5091500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4971500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4464400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4470500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4530700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4511100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4491900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4474300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4449400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3828,49 +3965,52 @@
         <v>2826100</v>
       </c>
       <c r="K59" s="3">
+        <v>2826100</v>
+      </c>
+      <c r="L59" s="3">
         <v>2796100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2757700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2810600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2641900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2636400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2644000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2626700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2617800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2619700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2603800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4432,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4304,49 +4462,52 @@
         <v>4476300</v>
       </c>
       <c r="K66" s="3">
+        <v>4476300</v>
+      </c>
+      <c r="L66" s="3">
         <v>4420200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4311900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4279800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3775900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3767300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3793500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3806700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3791000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3782700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3763800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4670,49 +4844,52 @@
         <v>936500</v>
       </c>
       <c r="K72" s="3">
+        <v>936500</v>
+      </c>
+      <c r="L72" s="3">
         <v>940300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>925900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>914400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>913200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>908000</v>
       </c>
       <c r="S72" s="3">
         <v>908000</v>
       </c>
       <c r="T72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="U72" s="3">
         <v>877600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>873600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>870600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>868100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4942,49 +5128,52 @@
         <v>900300</v>
       </c>
       <c r="K76" s="3">
+        <v>900300</v>
+      </c>
+      <c r="L76" s="3">
         <v>891500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>779600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>691700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>688500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>703200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>737200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>704400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>700800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>691500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>685600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="P83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="S83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="T83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="V83" s="3">
         <v>11500</v>
       </c>
-      <c r="E83" s="3">
-        <v>9900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>14400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>13900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>11800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>11400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>10700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>10500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>11400</v>
-      </c>
-      <c r="S83" s="3">
-        <v>10100</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="W83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="X83" s="3">
         <v>9300</v>
       </c>
-      <c r="U83" s="3">
-        <v>11500</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="Y83" s="3">
         <v>9600</v>
       </c>
-      <c r="W83" s="3">
-        <v>9300</v>
-      </c>
-      <c r="X83" s="3">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-15800</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-24900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3700</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4600</v>
-      </c>
       <c r="H89" s="3">
-        <v>-20500</v>
+        <v>-25100</v>
       </c>
       <c r="I89" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="J89" s="3">
         <v>3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>67200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>12600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,31 +5940,32 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
+        <v>600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -5752,44 +5973,47 @@
       <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-500</v>
       </c>
       <c r="P91" s="3">
         <v>-500</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-300</v>
       </c>
       <c r="X91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-21400</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19900</v>
       </c>
-      <c r="G94" s="3">
-        <v>1100</v>
-      </c>
       <c r="H94" s="3">
-        <v>9800</v>
+        <v>10800</v>
       </c>
       <c r="I94" s="3">
+        <v>43800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-11500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>12400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,16 +6251,17 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2600</v>
+        <v>7800</v>
       </c>
       <c r="F96" s="3">
         <v>-2600</v>
@@ -6036,10 +6270,10 @@
         <v>-2600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2600</v>
+        <v>-5200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2600</v>
+        <v>7800</v>
       </c>
       <c r="J96" s="3">
         <v>-2600</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>36200</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F100" s="3">
         <v>24600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12900</v>
       </c>
-      <c r="G100" s="3">
-        <v>4800</v>
-      </c>
       <c r="H100" s="3">
-        <v>10000</v>
+        <v>14800</v>
       </c>
       <c r="I100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J100" s="3">
         <v>7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>6600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1100</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
-        <v>1200</v>
-      </c>
       <c r="H102" s="3">
-        <v>-700</v>
+        <v>500</v>
       </c>
       <c r="I102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
         <v>119200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>142900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>121300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>124800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>122300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>126100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>146800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>129900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>130100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>123700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>115700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>109500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>112200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>112000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>115300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>111200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>111700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
         <v>9600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8100</v>
       </c>
       <c r="I9" s="3">
         <v>8100</v>
       </c>
       <c r="J9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K9" s="3">
         <v>8500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
         <v>109600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>135000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>112200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>116700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>114200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>117600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>118300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>134600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>111400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>117100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>120600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>121400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>112700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>106800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>99400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>103600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>104100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>105300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>103100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>103900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1176,8 +1196,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1191,15 +1211,15 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
         <v>128700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>128300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>119500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>130100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>129000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>125500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>123400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>113700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>125200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>120800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>108000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>107800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>107300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>102700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>107400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>104000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>104600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,16 +1515,17 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1553,79 +1587,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-39100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25200</v>
       </c>
-      <c r="G21" s="3">
-        <v>4000</v>
-      </c>
       <c r="H21" s="3">
-        <v>25500</v>
+        <v>24300</v>
       </c>
       <c r="I21" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-41200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>18700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>16800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>16500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-29300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,16 +2401,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2405,79 +2475,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2778,49 +2865,52 @@
         <v>8000</v>
       </c>
       <c r="L41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>31700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3204,49 +3309,52 @@
         <v>3904800</v>
       </c>
       <c r="L47" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="M47" s="3">
         <v>3875100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3670000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>3510200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3200300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3246100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3318200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3321300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3320200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3298300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3294600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3295,29 +3403,32 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>10500</v>
-      </c>
-      <c r="U48" s="3">
-        <v>16200</v>
       </c>
       <c r="V48" s="3">
         <v>16200</v>
       </c>
       <c r="W48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="X48" s="3">
         <v>16300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3346,19 +3457,19 @@
         <v>61600</v>
       </c>
       <c r="L49" s="3">
+        <v>61600</v>
+      </c>
+      <c r="M49" s="3">
         <v>61800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3701,49 +3827,52 @@
         <v>5376600</v>
       </c>
       <c r="L54" s="3">
+        <v>5376600</v>
+      </c>
+      <c r="M54" s="3">
         <v>5311600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5091500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>4971500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4464400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4470500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4530700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4511100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4491900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4474300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4449400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3968,49 +4105,52 @@
         <v>2826100</v>
       </c>
       <c r="L59" s="3">
+        <v>2826100</v>
+      </c>
+      <c r="M59" s="3">
         <v>2796100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2757700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>2810600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2641900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2636400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2644000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2626700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2617800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2619700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2603800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4590,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4465,49 +4623,52 @@
         <v>4476300</v>
       </c>
       <c r="L66" s="3">
+        <v>4476300</v>
+      </c>
+      <c r="M66" s="3">
         <v>4420200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4311900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>4279800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3775900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3767300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3793500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3806700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3791000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3782700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3763800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4988,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4847,49 +5021,52 @@
         <v>936500</v>
       </c>
       <c r="L72" s="3">
+        <v>936500</v>
+      </c>
+      <c r="M72" s="3">
         <v>940300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>925900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>914400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>913200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>908000</v>
       </c>
       <c r="T72" s="3">
         <v>908000</v>
       </c>
       <c r="U72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="V72" s="3">
         <v>877600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>873600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>870600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>868100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5284,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5131,49 +5317,52 @@
         <v>900300</v>
       </c>
       <c r="L76" s="3">
+        <v>900300</v>
+      </c>
+      <c r="M76" s="3">
         <v>891500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>779600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>691700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>688500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>703200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>737200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>704400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>691500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>685600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
         <v>-29700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9900</v>
       </c>
-      <c r="G83" s="3">
-        <v>11000</v>
-      </c>
       <c r="H83" s="3">
-        <v>20200</v>
+        <v>31200</v>
       </c>
       <c r="I83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J83" s="3">
         <v>-40600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
         <v>30500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3700</v>
       </c>
-      <c r="H89" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>67200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,34 +6161,35 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-500</v>
       </c>
       <c r="L91" s="3">
         <v>-500</v>
@@ -5976,44 +6197,47 @@
       <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-500</v>
       </c>
       <c r="Q91" s="3">
         <v>-500</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-800</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-300</v>
       </c>
       <c r="Y91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-19900</v>
-      </c>
       <c r="H94" s="3">
-        <v>10800</v>
+        <v>-9000</v>
       </c>
       <c r="I94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J94" s="3">
         <v>43800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>6300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>12400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6261,22 +6495,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>7800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2600</v>
       </c>
       <c r="G96" s="3">
         <v>-2600</v>
       </c>
       <c r="H96" s="3">
-        <v>-5200</v>
+        <v>-7800</v>
       </c>
       <c r="I96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J96" s="3">
         <v>7800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2600</v>
       </c>
       <c r="K96" s="3">
         <v>-2600</v>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
         <v>-16200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24600</v>
       </c>
-      <c r="G100" s="3">
-        <v>12900</v>
-      </c>
       <c r="H100" s="3">
-        <v>14800</v>
+        <v>27800</v>
       </c>
       <c r="I100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-11100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>6600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H102" s="3">
-        <v>500</v>
+        <v>-2700</v>
       </c>
       <c r="I102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,71 +783,74 @@
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
         <v>119200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>142900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>121300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>124800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>126100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>128000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>146800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>126300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>129900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>130100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>123700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>115700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>109500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>112200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>112000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>115300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>111200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>111700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,71 +860,74 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
         <v>9600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8100</v>
       </c>
       <c r="J9" s="3">
         <v>8100</v>
       </c>
       <c r="K9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L9" s="3">
         <v>8500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,71 +937,74 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>109600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>135000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>112200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>116700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>114200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>117600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>118300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>134600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>111400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>117100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>120600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>121400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>112700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>106800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>99400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>103600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>104100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>105300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>103100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>103900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1199,8 +1218,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1214,15 +1233,15 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,71 +1377,74 @@
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
         <v>128700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>128300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>119500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>123000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>130100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>129000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>125500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>123400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>113700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>123500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>125200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>120800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>108000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>107800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>107300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>102700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>107400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>104000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>104600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1425,71 +1454,74 @@
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,8 +1560,8 @@
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1590,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,71 +1637,74 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>-39100</v>
       </c>
-      <c r="G21" s="3">
-        <v>25200</v>
-      </c>
       <c r="H21" s="3">
-        <v>24300</v>
+        <v>56500</v>
       </c>
       <c r="I21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J21" s="3">
         <v>15400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-41200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>19400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>16800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>16500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1749,71 +1791,74 @@
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
         <v>-9400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1823,71 +1868,74 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-29300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1971,71 +2022,74 @@
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2045,71 +2099,74 @@
       <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>34100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,8 +2484,8 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2478,8 +2547,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2489,71 +2561,74 @@
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>34100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2637,150 +2715,156 @@
       <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>34100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2868,49 +2954,52 @@
         <v>8000</v>
       </c>
       <c r="M41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>31700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3312,49 +3416,52 @@
         <v>3904800</v>
       </c>
       <c r="M47" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="N47" s="3">
         <v>3875100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3670000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>3510200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3200300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3246100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3318200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3321300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3320200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3298300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3294600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3406,29 +3513,32 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>10500</v>
-      </c>
-      <c r="V48" s="3">
-        <v>16200</v>
       </c>
       <c r="W48" s="3">
         <v>16200</v>
       </c>
       <c r="X48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>16300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3460,19 +3570,19 @@
         <v>61600</v>
       </c>
       <c r="M49" s="3">
+        <v>61600</v>
+      </c>
+      <c r="N49" s="3">
         <v>61800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3830,49 +3955,52 @@
         <v>5376600</v>
       </c>
       <c r="M54" s="3">
+        <v>5376600</v>
+      </c>
+      <c r="N54" s="3">
         <v>5311600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5091500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>4971500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4464400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4470500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4530700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4511100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4491900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4474300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4449400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4001,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4108,49 +4244,52 @@
         <v>2826100</v>
       </c>
       <c r="M59" s="3">
+        <v>2826100</v>
+      </c>
+      <c r="N59" s="3">
         <v>2796100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2757700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>2810600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2641900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2636400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2644000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2626700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2617800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2619700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2603800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4626,49 +4783,52 @@
         <v>4476300</v>
       </c>
       <c r="M66" s="3">
+        <v>4476300</v>
+      </c>
+      <c r="N66" s="3">
         <v>4420200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4311900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>4279800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3775900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3767300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3793500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3806700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3791000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3782700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3763800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5024,49 +5197,52 @@
         <v>936500</v>
       </c>
       <c r="M72" s="3">
+        <v>936500</v>
+      </c>
+      <c r="N72" s="3">
         <v>940300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>925900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>914400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>913200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>908000</v>
       </c>
       <c r="U72" s="3">
         <v>908000</v>
       </c>
       <c r="V72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="W72" s="3">
         <v>877600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>873600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>870600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>868100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5320,49 +5505,52 @@
         <v>900300</v>
       </c>
       <c r="M76" s="3">
+        <v>900300</v>
+      </c>
+      <c r="N76" s="3">
         <v>891500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>779600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>691700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>688500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>703200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>737200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>704400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>700800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>691500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>685600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5525,71 +5719,74 @@
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>34100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5627,71 +5825,74 @@
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3">
         <v>-29700</v>
       </c>
-      <c r="G83" s="3">
-        <v>9900</v>
-      </c>
       <c r="H83" s="3">
-        <v>31200</v>
+        <v>41200</v>
       </c>
       <c r="I83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J83" s="3">
         <v>10200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-40600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6071,71 +6287,74 @@
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3">
         <v>30500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-24900</v>
-      </c>
       <c r="H89" s="3">
-        <v>-21400</v>
+        <v>-46300</v>
       </c>
       <c r="I89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-26400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>67200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>12600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,37 +6381,38 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K91" s="3">
         <v>1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-500</v>
       </c>
       <c r="M91" s="3">
         <v>-500</v>
@@ -6200,44 +6420,47 @@
       <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="O91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-500</v>
       </c>
       <c r="R91" s="3">
         <v>-500</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-300</v>
       </c>
       <c r="Z91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6395,71 +6624,74 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
         <v>-13600</v>
       </c>
-      <c r="G94" s="3">
-        <v>1200</v>
-      </c>
       <c r="H94" s="3">
-        <v>-9000</v>
+        <v>-7900</v>
       </c>
       <c r="I94" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>43800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-50400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>12400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6498,22 +6731,22 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>7800</v>
       </c>
-      <c r="G96" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H96" s="3">
-        <v>-7800</v>
+        <v>-10500</v>
       </c>
       <c r="I96" s="3">
         <v>-2600</v>
       </c>
       <c r="J96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K96" s="3">
         <v>7800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2600</v>
       </c>
       <c r="L96" s="3">
         <v>-2600</v>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6793,71 +7038,74 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
         <v>-16200</v>
       </c>
-      <c r="G100" s="3">
-        <v>24600</v>
-      </c>
       <c r="H100" s="3">
-        <v>27800</v>
+        <v>52400</v>
       </c>
       <c r="I100" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6941,67 +7192,70 @@
       <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
-        <v>900</v>
-      </c>
       <c r="H102" s="3">
-        <v>-2700</v>
+        <v>-1800</v>
       </c>
       <c r="I102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1900</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,71 +790,74 @@
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
         <v>119200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>142900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>121300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>124800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>126100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>128000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>146800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>126300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>129900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>130100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>123700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>115700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>109500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>112200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>112000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>115300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>111200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>111700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -863,71 +870,74 @@
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
         <v>9600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>8100</v>
       </c>
       <c r="K9" s="3">
         <v>8100</v>
       </c>
       <c r="L9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M9" s="3">
         <v>8500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -940,71 +950,74 @@
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
         <v>109600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>135000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>112200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>116700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>114200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>117600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>118300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>134600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>111400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>117100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>120600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>121400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>112700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>106800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>99400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>103600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>104100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>105300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>103100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>103900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1221,8 +1241,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1236,15 +1256,15 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1380,71 +1407,74 @@
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
         <v>128700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>128300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>119500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>123000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>130100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>129000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>125500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>113700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>123500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>125200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>120800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>108000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>107800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>107300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>102700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>107400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>104000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>104600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1457,71 +1487,74 @@
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <v>-9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1563,8 +1597,8 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,71 +1677,74 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
-        <v>-39100</v>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>56500</v>
+        <v>2100</v>
       </c>
       <c r="I21" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J21" s="3">
         <v>4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-41200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>35700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>19400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>16800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>16500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1794,71 +1837,74 @@
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1871,71 +1917,74 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-29300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2025,71 +2077,74 @@
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2102,71 +2157,74 @@
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>34100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2487,8 +2557,8 @@
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2564,71 +2637,74 @@
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>34100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2718,153 +2797,159 @@
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>34100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2957,49 +3044,52 @@
         <v>8000</v>
       </c>
       <c r="N41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>31700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3419,49 +3524,52 @@
         <v>3904800</v>
       </c>
       <c r="N47" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="O47" s="3">
         <v>3875100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3670000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3">
         <v>3510200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3200300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3246100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3318200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3321300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3320200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3298300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3294600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3516,29 +3624,32 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>10500</v>
-      </c>
-      <c r="W48" s="3">
-        <v>16200</v>
       </c>
       <c r="X48" s="3">
         <v>16200</v>
       </c>
       <c r="Y48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>16300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3573,19 +3684,19 @@
         <v>61600</v>
       </c>
       <c r="N49" s="3">
+        <v>61600</v>
+      </c>
+      <c r="O49" s="3">
         <v>61800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3958,49 +4084,52 @@
         <v>5376600</v>
       </c>
       <c r="N54" s="3">
+        <v>5376600</v>
+      </c>
+      <c r="O54" s="3">
         <v>5311600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5091500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>4971500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4464400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4470500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4530700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4511100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4491900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4474300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4449400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4247,49 +4384,52 @@
         <v>2826100</v>
       </c>
       <c r="N59" s="3">
+        <v>2826100</v>
+      </c>
+      <c r="O59" s="3">
         <v>2796100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2757700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>2810600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2641900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2636400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2644000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2626700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2617800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2619700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2603800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4786,49 +4944,52 @@
         <v>4476300</v>
       </c>
       <c r="N66" s="3">
+        <v>4476300</v>
+      </c>
+      <c r="O66" s="3">
         <v>4420200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4311900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>4279800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3775900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3767300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3793500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3806700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3791000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3782700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3763800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5200,49 +5374,52 @@
         <v>936500</v>
       </c>
       <c r="N72" s="3">
+        <v>936500</v>
+      </c>
+      <c r="O72" s="3">
         <v>940300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>925900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>914400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>913200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>908000</v>
       </c>
       <c r="V72" s="3">
         <v>908000</v>
       </c>
       <c r="W72" s="3">
+        <v>908000</v>
+      </c>
+      <c r="X72" s="3">
         <v>877600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>873600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>870600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>868100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5508,49 +5694,52 @@
         <v>900300</v>
       </c>
       <c r="N76" s="3">
+        <v>900300</v>
+      </c>
+      <c r="O76" s="3">
         <v>891500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>779600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>691700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>688500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>703200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>737200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>704400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>700800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>691500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>685600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5722,71 +5917,74 @@
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>34100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5828,71 +6027,74 @@
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
-        <v>-29700</v>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>41200</v>
+        <v>11500</v>
       </c>
       <c r="I83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J83" s="3">
         <v>11000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-40600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6290,71 +6507,74 @@
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="3">
-        <v>30500</v>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>-46300</v>
+        <v>-15800</v>
       </c>
       <c r="I89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="J89" s="3">
         <v>3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>67200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>12600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6409,13 +6630,13 @@
         <v>-500</v>
       </c>
       <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3">
         <v>1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-500</v>
       </c>
       <c r="N91" s="3">
         <v>-500</v>
@@ -6423,44 +6644,47 @@
       <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="P91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-500</v>
       </c>
       <c r="S91" s="3">
         <v>-500</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-300</v>
       </c>
       <c r="AA91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6627,71 +6857,74 @@
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>-13600</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-7900</v>
+        <v>-21400</v>
       </c>
       <c r="I94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-19900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>43800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>6300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>12400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6734,10 +6968,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-10500</v>
+        <v>-2600</v>
       </c>
       <c r="I96" s="3">
         <v>-2600</v>
@@ -6746,10 +6980,10 @@
         <v>-2600</v>
       </c>
       <c r="K96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L96" s="3">
         <v>7800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2600</v>
       </c>
       <c r="M96" s="3">
         <v>-2600</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7041,71 +7287,74 @@
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
-        <v>-16200</v>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>52400</v>
+        <v>36200</v>
       </c>
       <c r="I100" s="3">
+        <v>24600</v>
+      </c>
+      <c r="J100" s="3">
         <v>12900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7195,67 +7447,70 @@
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="3">
-        <v>700</v>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H102" s="3">
-        <v>-1800</v>
+        <v>-1100</v>
       </c>
       <c r="I102" s="3">
+        <v>900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1900</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KCLI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>KCLI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,385 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>124000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>126000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>122800</v>
       </c>
       <c r="H8" s="3">
+        <v>120000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>114600</v>
+      </c>
+      <c r="J8" s="3">
         <v>119200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>142900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>121300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>124800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>122300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>126100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>128000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>146800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>123000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>126300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>129900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>130100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>123700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>115700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>109500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>112200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>112000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>115300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>111200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>111700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8800</v>
       </c>
       <c r="H9" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J9" s="3">
         <v>9600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>9700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>9300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>8900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>10100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>8600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>7900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>10000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>8100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>7800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>115900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>116800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>114000</v>
       </c>
       <c r="H10" s="3">
+        <v>110300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J10" s="3">
         <v>109600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>135000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>112200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>116700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>114200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>117600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>118300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>134600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>111400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>117100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>120600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>121400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>112700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>106800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>99400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>103600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>104100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>105300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>103100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>103900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1240,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1244,11 +1284,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1259,18 +1299,18 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1286,8 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1445,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>118300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>130100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>144500</v>
       </c>
       <c r="H17" s="3">
+        <v>114700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>109500</v>
+      </c>
+      <c r="J17" s="3">
         <v>128700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>127600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>128300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>119500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>123000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>130100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>129000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>125500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>123400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>113700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>123500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>125200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>120800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>108000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>107800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>107300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>102700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>107400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>104000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>104600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>102100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-21700</v>
       </c>
       <c r="H18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>21300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>12600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>7700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>4900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>9300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>7900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>7200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>7100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,22 +1649,24 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1663,88 +1731,100 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-11400</v>
       </c>
       <c r="H21" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>25200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-41200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>10800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>35700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>13400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>24400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>17800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>15700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>15400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>18200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>13100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>14900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>18700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>19400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>16800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>16500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1903,186 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-21700</v>
       </c>
       <c r="H23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>15300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>21300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>12600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>6400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>7700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>4900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>9300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>7900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>7300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>7100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-4300</v>
       </c>
       <c r="H24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>600</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-3200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-29300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>2100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2161,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-17300</v>
       </c>
       <c r="H26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-7700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>13100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>10600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>34100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>6600</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>5200</v>
       </c>
       <c r="AA26" s="3">
         <v>5600</v>
       </c>
       <c r="AB26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD26" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-17300</v>
       </c>
       <c r="H27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-7700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>13100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>10600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>34100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>6600</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>5200</v>
       </c>
       <c r="AA27" s="3">
         <v>5600</v>
       </c>
       <c r="AB27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD27" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,22 +2677,28 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2623,88 +2763,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-17300</v>
       </c>
       <c r="H33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-7700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>13100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>10600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>34100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>6600</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>5200</v>
       </c>
       <c r="AA33" s="3">
         <v>5600</v>
       </c>
       <c r="AB33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD33" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2935,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-17300</v>
       </c>
       <c r="H35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-7700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>13100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>10600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>34100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>6600</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>5200</v>
       </c>
       <c r="AA35" s="3">
         <v>5600</v>
       </c>
       <c r="AB35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD35" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,34 +3180,36 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
-        <v>5400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>8000</v>
       </c>
       <c r="L41" s="3">
         <v>8000</v>
@@ -3047,49 +3221,55 @@
         <v>8000</v>
       </c>
       <c r="O41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>31700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>13500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>13700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>9500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>11000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>9200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>9100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>9600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3348,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3434,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3520,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3606,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,34 +3692,40 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2885100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2986200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3033800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2958700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2922900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3017500</v>
+      </c>
+      <c r="J47" s="3">
         <v>3664300</v>
       </c>
-      <c r="E47" s="3">
-        <v>3857300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3840900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3851500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3793000</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3941600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3904800</v>
-      </c>
-      <c r="K47" s="3">
-        <v>3904800</v>
       </c>
       <c r="L47" s="3">
         <v>3904800</v>
@@ -3527,49 +3737,55 @@
         <v>3904800</v>
       </c>
       <c r="O47" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="P47" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3875100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3670000</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>3510200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3200300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>3246100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>3318200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>3321300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>3320200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>3298300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>3294600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>3370700</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3627,37 +3843,43 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>10500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>16200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>16200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>16300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>15900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>60700</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -3668,14 +3890,14 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>61500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>61600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>61600</v>
       </c>
       <c r="L49" s="3">
         <v>61600</v>
@@ -3687,23 +3909,23 @@
         <v>61600</v>
       </c>
       <c r="O49" s="3">
+        <v>61600</v>
+      </c>
+      <c r="P49" s="3">
+        <v>61600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>61800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>62000</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
@@ -3728,8 +3950,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4122,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4208,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,34 +4294,40 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4855700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4973100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5007100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4965100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4952400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>5055000</v>
+      </c>
+      <c r="J54" s="3">
         <v>5217600</v>
       </c>
-      <c r="E54" s="3">
-        <v>5433400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5390900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5412600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5337000</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5463000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5376600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5376600</v>
       </c>
       <c r="L54" s="3">
         <v>5376600</v>
@@ -4087,49 +4339,55 @@
         <v>5376600</v>
       </c>
       <c r="O54" s="3">
+        <v>5376600</v>
+      </c>
+      <c r="P54" s="3">
+        <v>5376600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5311600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5091500</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>4971500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4464400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4470500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4530700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4511100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4491900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4474300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4449400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>4513000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4448,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4530,14 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,34 +4616,40 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2790600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2841200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2853400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2867300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2875000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2893300</v>
+      </c>
+      <c r="J59" s="3">
         <v>2922900</v>
       </c>
-      <c r="E59" s="3">
-        <v>2938100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2899800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2898000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2879900</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2869800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2826100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2826100</v>
       </c>
       <c r="L59" s="3">
         <v>2826100</v>
@@ -4387,49 +4661,55 @@
         <v>2826100</v>
       </c>
       <c r="O59" s="3">
+        <v>2826100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>2826100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2796100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2757700</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>2810600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2641900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2636400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2644000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2626700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2617800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2619700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2603800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>2602100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4788,14 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4874,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4960,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,34 +5218,40 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4407300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4467200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4478900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4473500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4454600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4471000</v>
+      </c>
+      <c r="J66" s="3">
         <v>4528500</v>
       </c>
-      <c r="E66" s="3">
-        <v>4603000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4555100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4555600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4512800</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4554300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4476300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>4476300</v>
       </c>
       <c r="L66" s="3">
         <v>4476300</v>
@@ -4947,49 +5263,55 @@
         <v>4476300</v>
       </c>
       <c r="O66" s="3">
+        <v>4476300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>4476300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4420200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4311900</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>4279800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3775900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3767300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3793500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3806700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3791000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3782700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3763800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>3798500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,34 +5680,40 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>911500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>908200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>905100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>910400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>929100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>926200</v>
+      </c>
+      <c r="J72" s="3">
         <v>923000</v>
       </c>
-      <c r="E72" s="3">
-        <v>933300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>922900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>931500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>929800</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>933100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>936500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>936500</v>
       </c>
       <c r="L72" s="3">
         <v>936500</v>
@@ -5377,49 +5725,55 @@
         <v>936500</v>
       </c>
       <c r="O72" s="3">
+        <v>936500</v>
+      </c>
+      <c r="P72" s="3">
+        <v>936500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>940300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>925900</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>914400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>913200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>908000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>908000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>877600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>873600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>870600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>868100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,34 +6024,40 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>448300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>505900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>528200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>491700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>497800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>583900</v>
+      </c>
+      <c r="J76" s="3">
         <v>689100</v>
       </c>
-      <c r="E76" s="3">
-        <v>830400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>835800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>857000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>824300</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>908700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>900300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>900300</v>
       </c>
       <c r="L76" s="3">
         <v>900300</v>
@@ -5697,49 +6069,55 @@
         <v>900300</v>
       </c>
       <c r="O76" s="3">
+        <v>900300</v>
+      </c>
+      <c r="P76" s="3">
+        <v>900300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>891500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>779600</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>691700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>688500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>703200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>737200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>704400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>700800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>691500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>685600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6196,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-17300</v>
       </c>
       <c r="H81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-7700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>13100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>10600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>34100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>6600</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>5200</v>
       </c>
       <c r="AA81" s="3">
         <v>5600</v>
       </c>
       <c r="AB81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD81" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6409,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>10300</v>
       </c>
       <c r="H83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J83" s="3">
         <v>11500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>9900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>-40600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>10600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>11800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>11400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>10700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>12600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>10500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>11400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>10100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>9300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>11500</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>9600</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>9300</v>
       </c>
       <c r="AB83" s="3">
         <v>9600</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-11100</v>
       </c>
       <c r="H89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-15800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-24900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-26400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>12700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-9800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>67200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-8500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>9900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>4900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>12600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7043,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-500</v>
       </c>
       <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-700</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-300</v>
       </c>
       <c r="Y91" s="3">
         <v>-400</v>
       </c>
       <c r="Z91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7297,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-9500</v>
       </c>
       <c r="H94" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-21400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-19900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>43800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-12200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>6400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-24900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-50400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>6300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>12400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-14300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,28 +7419,30 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2600</v>
+        <v>-1400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2600</v>
+        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>-2600</v>
@@ -6983,13 +7451,13 @@
         <v>-2600</v>
       </c>
       <c r="L96" s="3">
-        <v>7800</v>
+        <v>-2600</v>
       </c>
       <c r="M96" s="3">
         <v>-2600</v>
       </c>
       <c r="N96" s="3">
-        <v>-2600</v>
+        <v>7800</v>
       </c>
       <c r="O96" s="3">
         <v>-2600</v>
@@ -7033,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>-2600</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7759,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>21000</v>
       </c>
       <c r="H100" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>57600</v>
+      </c>
+      <c r="J100" s="3">
         <v>36200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>24600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>12900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-11100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>7000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>11200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>6900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-3900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>3000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>3700</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>600</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>6600</v>
       </c>
       <c r="AA100" s="3">
         <v>600</v>
       </c>
       <c r="AB100" s="3">
+        <v>6600</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD100" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7931,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>500</v>
       </c>
       <c r="H102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-18000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>18200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1900</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>2000</v>
       </c>
     </row>
